--- a/data/hotels_by_city/Houston/Houston_shard_218.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_218.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107986-Reviews-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-I-10-West-CityCentre.h202835.Hotel-Information?chkin=7%2F15%2F2018&amp;chkout=7%2F16%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530892246074&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=665b2862-d070-40a5-9afa-7a673c6aefe1&amp;mctc=9&amp;exp_dp=66.49&amp;exp_ts=1530892253148&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,818 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r554576667-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107986</t>
+  </si>
+  <si>
+    <t>554576667</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>I expected better</t>
+  </si>
+  <si>
+    <t>For the title of this location, "City Centre" the property is not reflective of that area.  The staff are friendly, although 1 overnight person was noted wrapped in a blanket and scarf on her head.  My mattress has stains, stovetop has only 1 working side, and the hallways are always smokey.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>For the title of this location, "City Centre" the property is not reflective of that area.  The staff are friendly, although 1 overnight person was noted wrapped in a blanket and scarf on her head.  My mattress has stains, stovetop has only 1 working side, and the hallways are always smokey.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r545053241-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545053241</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>The wireless service is terrible. I’ve stayed in numerous rooms over the years. In the last 18 months, complaints were made. The front desk is aware. I know they tried to get a resolve. Problem continues.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>The wireless service is terrible. I’ve stayed in numerous rooms over the years. In the last 18 months, complaints were made. The front desk is aware. I know they tried to get a resolve. Problem continues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r542359570-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542359570</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>hotel stay</t>
+  </si>
+  <si>
+    <t>Everything was great about the place. Just two very small issues with the room. The refrigerator door needed to be replaced. Also, there were kids running around constantly above my room and we heard the walking/running noise non-stop.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Everything was great about the place. Just two very small issues with the room. The refrigerator door needed to be replaced. Also, there were kids running around constantly above my room and we heard the walking/running noise non-stop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r505466654-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505466654</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Awful rooms</t>
+  </si>
+  <si>
+    <t>Condition of the room was horrible. Smelled like someone continuously smoked in the room,  it was dark, dirty.. afraid to even remove shoes.  We were denied a refund,  since it was after 3pm.  Even though the room was awful.  We immediately left and found another hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Condition of the room was horrible. Smelled like someone continuously smoked in the room,  it was dark, dirty.. afraid to even remove shoes.  We were denied a refund,  since it was after 3pm.  Even though the room was awful.  We immediately left and found another hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r505683015-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505683015</t>
+  </si>
+  <si>
+    <t>hustle trip</t>
+  </si>
+  <si>
+    <t>hustle trip- We arrived late and registration was slow. lady at front desk was friendly. The issue here is the quality of the room. The smell of some was BAD. Had to go buy an air freshener and spray the room everyday. The smell of guest smoking marijuana was strong down the hallways.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>hustle trip- We arrived late and registration was slow. lady at front desk was friendly. The issue here is the quality of the room. The smell of some was BAD. Had to go buy an air freshener and spray the room everyday. The smell of guest smoking marijuana was strong down the hallways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r499877050-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499877050</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay for my transition selling/buying or home highly recommended.</t>
+  </si>
+  <si>
+    <t>Excellent Stay for our transition Selling/ Buying our home. The staff was professional and quiet hotel was always clean.  Even at night security was always there an courteous knowing who's coming and going in the parking area felt very comfortable with business supplies in my truck No WorriesMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay for our transition Selling/ Buying our home. The staff was professional and quiet hotel was always clean.  Even at night security was always there an courteous knowing who's coming and going in the parking area felt very comfortable with business supplies in my truck No WorriesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r492179494-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492179494</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>One night stay.</t>
+  </si>
+  <si>
+    <t>The only reason I  stayed here was for my class. I stayed to get to my class early the next day. Other than that I would have gone home. This is rediculous I have to write so much because i am rating this darn place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2017</t>
+  </si>
+  <si>
+    <t>The only reason I  stayed here was for my class. I stayed to get to my class early the next day. Other than that I would have gone home. This is rediculous I have to write so much because i am rating this darn place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r472941094-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472941094</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Terrible Corporate Guest Relations Customer Service</t>
+  </si>
+  <si>
+    <t>Okay, this is part 2 of the Houston Extended Stay America Hotel adventures. See my other review for history. 
+We checked into this hotel after being turned away from the Westheimer location where we were told our reservation was given away to a walk in (as they're trained to do by corporate even though corporate denies it, as confirmed by the front desk clerks at BOTH locations). We got to our smelly room to discover futniture was broken and there were dried streaks of *something* smeared all over the dresser along with splotchy crusty bits on the office chair. 
+I called and spoke with Jeremy (Corp. guest relations) the next morning to discuss my disappointment at having our reservation given away. He said they'd comp us the first night for the inconvenience. Okay, cool. 
+When we check out, the front desk lady doesn't seem to know anything about the comp'd night, so we stand there for nearly 30 minutes while she confirms with corporate that we'll only be charged for 3 nights instead of the 4 nights we stayed. The phone is handed to me and the corp lady tells me we'll only be charged for three nights. Cool. 
+A week later I check my CC account and see we were charged for 4 nights. Arg. so I call and speak with Peter in Corp guest relations. There aren't any notes about the refund there, so he comes up with...Okay, this is part 2 of the Houston Extended Stay America Hotel adventures. See my other review for history. We checked into this hotel after being turned away from the Westheimer location where we were told our reservation was given away to a walk in (as they're trained to do by corporate even though corporate denies it, as confirmed by the front desk clerks at BOTH locations). We got to our smelly room to discover futniture was broken and there were dried streaks of *something* smeared all over the dresser along with splotchy crusty bits on the office chair. I called and spoke with Jeremy (Corp. guest relations) the next morning to discuss my disappointment at having our reservation given away. He said they'd comp us the first night for the inconvenience. Okay, cool. When we check out, the front desk lady doesn't seem to know anything about the comp'd night, so we stand there for nearly 30 minutes while she confirms with corporate that we'll only be charged for 3 nights instead of the 4 nights we stayed. The phone is handed to me and the corp lady tells me we'll only be charged for three nights. Cool. A week later I check my CC account and see we were charged for 4 nights. Arg. so I call and speak with Peter in Corp guest relations. There aren't any notes about the refund there, so he comes up with  an arbitrary number that's close enough to what the refund should actually be to satisfy me and tells me it'll be processed right away. Cool.Fast forward another week and still no refund. This is the FOURTH time I've spoken with corporate about it. The man says he'll connect me with the hotel and we can both speak to them. Call gets disconnected during the transfer. Arg. I call back and get a woman on the line. FINALLY I'm told the refund was processed... 2 days ago. We stayed there 2 weeks ago. So, to state it clearly, DO NOT STAY AT EXTENDED STAY AMERICA HOTELS. Everyone but the actual hotel staff is incompetent, and the hotel smells like old beer and cheap weed. Not to mention the fact that one of the nights we came back from dinner, there was a cop in the drive way with a portable stop sign we had to check in with before we were able to park in the hotel parking lot. This was after we accidentally went to the wrong Extended Stay hotel (there are 2 on Katy Frw), and found a cop parked out front. Does that seem odd to anyone? Seemed odd to me. Meh. That's all for now.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Okay, this is part 2 of the Houston Extended Stay America Hotel adventures. See my other review for history. 
+We checked into this hotel after being turned away from the Westheimer location where we were told our reservation was given away to a walk in (as they're trained to do by corporate even though corporate denies it, as confirmed by the front desk clerks at BOTH locations). We got to our smelly room to discover futniture was broken and there were dried streaks of *something* smeared all over the dresser along with splotchy crusty bits on the office chair. 
+I called and spoke with Jeremy (Corp. guest relations) the next morning to discuss my disappointment at having our reservation given away. He said they'd comp us the first night for the inconvenience. Okay, cool. 
+When we check out, the front desk lady doesn't seem to know anything about the comp'd night, so we stand there for nearly 30 minutes while she confirms with corporate that we'll only be charged for 3 nights instead of the 4 nights we stayed. The phone is handed to me and the corp lady tells me we'll only be charged for three nights. Cool. 
+A week later I check my CC account and see we were charged for 4 nights. Arg. so I call and speak with Peter in Corp guest relations. There aren't any notes about the refund there, so he comes up with...Okay, this is part 2 of the Houston Extended Stay America Hotel adventures. See my other review for history. We checked into this hotel after being turned away from the Westheimer location where we were told our reservation was given away to a walk in (as they're trained to do by corporate even though corporate denies it, as confirmed by the front desk clerks at BOTH locations). We got to our smelly room to discover futniture was broken and there were dried streaks of *something* smeared all over the dresser along with splotchy crusty bits on the office chair. I called and spoke with Jeremy (Corp. guest relations) the next morning to discuss my disappointment at having our reservation given away. He said they'd comp us the first night for the inconvenience. Okay, cool. When we check out, the front desk lady doesn't seem to know anything about the comp'd night, so we stand there for nearly 30 minutes while she confirms with corporate that we'll only be charged for 3 nights instead of the 4 nights we stayed. The phone is handed to me and the corp lady tells me we'll only be charged for three nights. Cool. A week later I check my CC account and see we were charged for 4 nights. Arg. so I call and speak with Peter in Corp guest relations. There aren't any notes about the refund there, so he comes up with  an arbitrary number that's close enough to what the refund should actually be to satisfy me and tells me it'll be processed right away. Cool.Fast forward another week and still no refund. This is the FOURTH time I've spoken with corporate about it. The man says he'll connect me with the hotel and we can both speak to them. Call gets disconnected during the transfer. Arg. I call back and get a woman on the line. FINALLY I'm told the refund was processed... 2 days ago. We stayed there 2 weeks ago. So, to state it clearly, DO NOT STAY AT EXTENDED STAY AMERICA HOTELS. Everyone but the actual hotel staff is incompetent, and the hotel smells like old beer and cheap weed. Not to mention the fact that one of the nights we came back from dinner, there was a cop in the drive way with a portable stop sign we had to check in with before we were able to park in the hotel parking lot. This was after we accidentally went to the wrong Extended Stay hotel (there are 2 on Katy Frw), and found a cop parked out front. Does that seem odd to anyone? Seemed odd to me. Meh. That's all for now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r458186386-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458186386</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Great staff! Horrible expirience</t>
+  </si>
+  <si>
+    <t>Dirty Sheets, Roaches no one cleaned the room trash over flowed and the shower in room 206 would not stop dripping and the microwave was dirty and the selection of channels was horrible, not nagging just the truth. but the staff was courteous and helpful at all times but the hotel was just horrible and on the 2nd day i was there the elevator stopped working</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r394100406-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394100406</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here the staff was friendly and fast and the rooms are quiet. I appreciate a quiet clean room and this hotel lived up to my standards.Of course I will be sure to tell all of my friends and family when they visit or need a place to stay to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here the staff was friendly and fast and the rooms are quiet. I appreciate a quiet clean room and this hotel lived up to my standards.Of course I will be sure to tell all of my friends and family when they visit or need a place to stay to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r393998950-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393998950</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this location. The staff was friendly and helpful,the room was clean and fresh and most of all it was quiet allowing me plenty of rest.Will I refer this hotel to out of town visitors?...yesss</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r369123031-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369123031</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Not bad but horribly slow internet</t>
+  </si>
+  <si>
+    <t>Hotel rooms were comfortable but found hair all over the comforter and the free wifi a so slow it's a total waste of time don't even waste your money on purchasing the faster one as it sucks almost as bad. Staff was very friendly and very helpful with any questions or assistance. Nice area to be in and always easy to get parking close by the entrance. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Hotel rooms were comfortable but found hair all over the comforter and the free wifi a so slow it's a total waste of time don't even waste your money on purchasing the faster one as it sucks almost as bad. Staff was very friendly and very helpful with any questions or assistance. Nice area to be in and always easy to get parking close by the entrance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r256300162-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256300162</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Average budget hotel</t>
+  </si>
+  <si>
+    <t>Average budget hotel or motel for business stay. Rooms are large and clean. Basic stove, refrigerator and utensils are provide. Good for business travel and longer stays. The rooms are cleaned and made up regularly. Bathroom too is clean and spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Average budget hotel or motel for business stay. Rooms are large and clean. Basic stove, refrigerator and utensils are provide. Good for business travel and longer stays. The rooms are cleaned and made up regularly. Bathroom too is clean and spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r251708344-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251708344</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Worse stay ever</t>
+  </si>
+  <si>
+    <t>Room 239 had a stench that gave me a migraine, the water in the tub would not completely turn off so the sound of dripping water was constant there was a wash cloth in the bathroom provided for me that looked like blood had been wiped up with it then washed &amp; returned, then I tried to take a shower but if I turned the water past dripping the water was only cold then I tried turning the shower on &amp; it didn't work so needless to say I took a bath with a small cup provided in the room with dripping water. The next day I changed room to room 236 and the bathroom sink stopper would not stay up so just washing my hands filled the sink up so I had to hold the stopper up to drain the sink and wash my face,then leaving was another ordeal because they share a parking lot with the funeral home next door and there was a funeral in progress so we literally had to get in the procession line and wait to get out of the parking lot. This was the worst experience I have ever had. This hotel needs to be inspected and either closed down or renovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Room 239 had a stench that gave me a migraine, the water in the tub would not completely turn off so the sound of dripping water was constant there was a wash cloth in the bathroom provided for me that looked like blood had been wiped up with it then washed &amp; returned, then I tried to take a shower but if I turned the water past dripping the water was only cold then I tried turning the shower on &amp; it didn't work so needless to say I took a bath with a small cup provided in the room with dripping water. The next day I changed room to room 236 and the bathroom sink stopper would not stay up so just washing my hands filled the sink up so I had to hold the stopper up to drain the sink and wash my face,then leaving was another ordeal because they share a parking lot with the funeral home next door and there was a funeral in progress so we literally had to get in the procession line and wait to get out of the parking lot. This was the worst experience I have ever had. This hotel needs to be inspected and either closed down or renovated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r211718130-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211718130</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Great room for longer stays</t>
+  </si>
+  <si>
+    <t>We stayed here when in Houston for medical appointments.  Although, a little bit of a drive to the downtown medical centers, the room was great for what we needed.  We had a queen bed, kitchen with full fridge and two burner stove top.  The bathroom was a nice size with a humidity fan.  The air conditioner was a little loud, and ran often (no fault of the facility, it is summer in Houston, after all!). The only thing we missed was a dishwasher.  We washed our dishes by hand, which wasn't a problem, but I did wash them before using them as I didn't trust whoever was there before us to wash them.  We would definitely stay here again and would recommend it to friends and family, and all of you!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed here when in Houston for medical appointments.  Although, a little bit of a drive to the downtown medical centers, the room was great for what we needed.  We had a queen bed, kitchen with full fridge and two burner stove top.  The bathroom was a nice size with a humidity fan.  The air conditioner was a little loud, and ran often (no fault of the facility, it is summer in Houston, after all!). The only thing we missed was a dishwasher.  We washed our dishes by hand, which wasn't a problem, but I did wash them before using them as I didn't trust whoever was there before us to wash them.  We would definitely stay here again and would recommend it to friends and family, and all of you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r184014370-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184014370</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Style on a shoestring!</t>
+  </si>
+  <si>
+    <t>Comfortable hotel with prices decreasing as your length of stay increases.Small kitchen means you could cook in your room should you wish.Close to the freeway with most rooms being a little noisyLite grab a bag breakfast is all that is offered.Coffee on tap and some vended snacks in the stairwellsPrices from £50 per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2013</t>
+  </si>
+  <si>
+    <t>Comfortable hotel with prices decreasing as your length of stay increases.Small kitchen means you could cook in your room should you wish.Close to the freeway with most rooms being a little noisyLite grab a bag breakfast is all that is offered.Coffee on tap and some vended snacks in the stairwellsPrices from £50 per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r182137264-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182137264</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Very great place to stay</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and clean. and the staff, (esp. Sophie) was very friendly. I will stay there again on my next trip to Houston, and will recomend this hotel to anyone who needs a place to stay ion the area.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r180041826-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180041826</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Words cannot describe</t>
+  </si>
+  <si>
+    <t>This place has no amenities, not even a business center or fitness room. Things that every extended stay property should at least have. Rooms are average but cleanliness is definitely an issue here. Had to switch out of 2 rooms before settling on 3rd which wasn't great either. Just the thing that you want to do after a long flight. The Grab &amp; Go breakfast is a joke too, it's granola bars and old fruit. They can do a lot better and so can you... MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>This place has no amenities, not even a business center or fitness room. Things that every extended stay property should at least have. Rooms are average but cleanliness is definitely an issue here. Had to switch out of 2 rooms before settling on 3rd which wasn't great either. Just the thing that you want to do after a long flight. The Grab &amp; Go breakfast is a joke too, it's granola bars and old fruit. They can do a lot better and so can you... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r166515555-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166515555</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while relocating to the Houston area. The pros: I am a non-smoker moving from Austin and had tried other hotels in the area boasting non-smoking rooms/floors only to leave after a day. I had no such problems here. The bed was comfortable and I wish my pillows at home were this nice (I even Googled the manufacturer on the label to see if a non-commercial was available). The rooms were very quite, I often thought I was the only person in the hotel. Very convenient to I-10 and Beltway 8 (North and South). The cons: there was no exhaust fan in the bathroom; there was a place for it and a wiring hardware, I requested to have it installed, but even after my 5 week stay, still no fan. I purchased a Plug-In Air Freshener because I didn't like the smell of their cleaning products (probably a personal thing). The pros vastly outweigh the cons. I would stay here again and recommend my friends this location as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while relocating to the Houston area. The pros: I am a non-smoker moving from Austin and had tried other hotels in the area boasting non-smoking rooms/floors only to leave after a day. I had no such problems here. The bed was comfortable and I wish my pillows at home were this nice (I even Googled the manufacturer on the label to see if a non-commercial was available). The rooms were very quite, I often thought I was the only person in the hotel. Very convenient to I-10 and Beltway 8 (North and South). The cons: there was no exhaust fan in the bathroom; there was a place for it and a wiring hardware, I requested to have it installed, but even after my 5 week stay, still no fan. I purchased a Plug-In Air Freshener because I didn't like the smell of their cleaning products (probably a personal thing). The pros vastly outweigh the cons. I would stay here again and recommend my friends this location as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r152813324-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152813324</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Convenient and cheap but so stinky</t>
+  </si>
+  <si>
+    <t>I am currently staying in this hotel. Have been here a week and have a week left and though it is close to work and good value for the price I just can't get past the smell. The hallwas reek of seafood and other gross smells. I guess because they only clean once a week but it would be great if they could at least clean the halls. We were supposed to have our room cleaned after a week but they have not showed up the past two days and our room smells terrible. I would be very pleased with the hotel if they would just take care of the terrible odor. MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>I am currently staying in this hotel. Have been here a week and have a week left and though it is close to work and good value for the price I just can't get past the smell. The hallwas reek of seafood and other gross smells. I guess because they only clean once a week but it would be great if they could at least clean the halls. We were supposed to have our room cleaned after a week but they have not showed up the past two days and our room smells terrible. I would be very pleased with the hotel if they would just take care of the terrible odor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r151829687-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151829687</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>My Experience at this Hotel</t>
+  </si>
+  <si>
+    <t>If you are in relocation to this area of Houston Texas, this is a great place for an extended stay. My room was super clean and well equiped for an extended stay. Comfortable beds and always hot shower. Good in-room internet access too. The staff was super friendly and very helpful. Easy and nice grab and go breakfast in the morning with excellent brewed coffee. I will stay here again and recommend you too, if you need a nice safe place to stay in this area of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2013</t>
+  </si>
+  <si>
+    <t>If you are in relocation to this area of Houston Texas, this is a great place for an extended stay. My room was super clean and well equiped for an extended stay. Comfortable beds and always hot shower. Good in-room internet access too. The staff was super friendly and very helpful. Easy and nice grab and go breakfast in the morning with excellent brewed coffee. I will stay here again and recommend you too, if you need a nice safe place to stay in this area of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r151351178-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151351178</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>excellent home away from home</t>
+  </si>
+  <si>
+    <t>Very happy with the treatmet I recive at Extended Stay America in Houston TX honesty the staff is one of the most frienly ,especially Raza helped me alot , very attentive always with a smile on his face Thank you Raza very much !!!!!The room are clean and big, excellent locations and good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Very happy with the treatmet I recive at Extended Stay America in Houston TX honesty the staff is one of the most frienly ,especially Raza helped me alot , very attentive always with a smile on his face Thank you Raza very much !!!!!The room are clean and big, excellent locations and good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r151123987-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151123987</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>My 1.5 year stay 2 - Excellent!!</t>
+  </si>
+  <si>
+    <t>Since I have stayed at Extended Stay America, for over 1.5 years, my stay has been better than EXCELLENT!! The hotel has been renovated, and I was returned to my room, 302, with all the upgrades. When the elevator was not working, Atriana helped me carry my bags to the 3rd floor, which I would not have been able to do without her help. All the personnel  have been so helpful I can not pick one person, BUT, all have been Sooo helpful!!! Haris has helped me for any problems, which there were not many. I will stay here until my job ends. Thanks Extended Stay, Haris, Kenny, Atriana, Jaber, Alaba, Maria, and Yolanda.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Since I have stayed at Extended Stay America, for over 1.5 years, my stay has been better than EXCELLENT!! The hotel has been renovated, and I was returned to my room, 302, with all the upgrades. When the elevator was not working, Atriana helped me carry my bags to the 3rd floor, which I would not have been able to do without her help. All the personnel  have been so helpful I can not pick one person, BUT, all have been Sooo helpful!!! Haris has helped me for any problems, which there were not many. I will stay here until my job ends. Thanks Extended Stay, Haris, Kenny, Atriana, Jaber, Alaba, Maria, and Yolanda.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r150607441-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150607441</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Much better than expected</t>
+  </si>
+  <si>
+    <t>Remodeled recently...Convenient and Quiet (Hotel is behind a building and close to freeway)Friendly and Attentive Front Desk employee - Thanks Atriána!Grab N Go Breakfast a nice touchExcellent for the low price I paid via Hotwire.comCheck out is a bit earlier than I'm used to... (11 a.m.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Remodeled recently...Convenient and Quiet (Hotel is behind a building and close to freeway)Friendly and Attentive Front Desk employee - Thanks Atriána!Grab N Go Breakfast a nice touchExcellent for the low price I paid via Hotwire.comCheck out is a bit earlier than I'm used to... (11 a.m.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r149978787-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149978787</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>A Place you can call Home.</t>
+  </si>
+  <si>
+    <t>I'm very thankful Extended Stay was invented. Very pleased wwith Alba, Jaber, harris, April, brandon and Atriana for their pleasant and hard working attiitude. Mr. Harris pleasant manager very organized person. Atriana very dedicated employee. Alba in housecleaning very polite person. The first day we arrived just felt like home. The employees make you feel like family. MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded January 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2013</t>
+  </si>
+  <si>
+    <t>I'm very thankful Extended Stay was invented. Very pleased wwith Alba, Jaber, harris, April, brandon and Atriana for their pleasant and hard working attiitude. Mr. Harris pleasant manager very organized person. Atriana very dedicated employee. Alba in housecleaning very polite person. The first day we arrived just felt like home. The employees make you feel like family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r149297654-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149297654</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Tip Top hotel, enjoyed most everything</t>
+  </si>
+  <si>
+    <t>My visit to Houston was short, for a few days. Yet, however short a trip is, nothing beats a hotel that meets and then exceeds your stay experience. 100% of the staff had been the consummate professionals. Most importantly, i enjoyed the environment, the location, the tranquility and ultimately, my room. Very clean and home-like.Thanks for making my stay all too splendid. Happy New year to everyone there.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My visit to Houston was short, for a few days. Yet, however short a trip is, nothing beats a hotel that meets and then exceeds your stay experience. 100% of the staff had been the consummate professionals. Most importantly, i enjoyed the environment, the location, the tranquility and ultimately, my room. Very clean and home-like.Thanks for making my stay all too splendid. Happy New year to everyone there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r149218944-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149218944</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Happy New Year</t>
+  </si>
+  <si>
+    <t>On New Year,s Eve, I had moved from an apartment. I needed a place to stqy with my little dog. Then after driving around awhile, I observed Extended Stay America and parked and went inside to get informtion. I spoke to the person at the desk who was polite and patient. I was informed of all the amenities available to me which included television, WiFi, and a full kitchen with everything including siverware.In addition I was invited to breakfast which was served from6am to 9:30 am. I checked in for two days then checked for nother full month.Staff is always friendly and courteous and the Hotel facilities are clean and the locationis excellent for traveling around the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2013</t>
+  </si>
+  <si>
+    <t>On New Year,s Eve, I had moved from an apartment. I needed a place to stqy with my little dog. Then after driving around awhile, I observed Extended Stay America and parked and went inside to get informtion. I spoke to the person at the desk who was polite and patient. I was informed of all the amenities available to me which included television, WiFi, and a full kitchen with everything including siverware.In addition I was invited to breakfast which was served from6am to 9:30 am. I checked in for two days then checked for nother full month.Staff is always friendly and courteous and the Hotel facilities are clean and the locationis excellent for traveling around the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r147740839-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147740839</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Nice property and good location</t>
+  </si>
+  <si>
+    <t>The staff are very courteous, every ready to assist residents. I will introduce my friends to use this beautiful facility. Your hotel will be my first choice whenever I travel within the US. One of my friend told me about this location. I use to stay at the other extended stay. But this is the best one so far.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded December 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2012</t>
+  </si>
+  <si>
+    <t>The staff are very courteous, every ready to assist residents. I will introduce my friends to use this beautiful facility. Your hotel will be my first choice whenever I travel within the US. One of my friend told me about this location. I use to stay at the other extended stay. But this is the best one so far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r147330112-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147330112</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Just like home</t>
+  </si>
+  <si>
+    <t>This is a great establishment it is very quiet,clean, and safe ... I recommend this location to everyone visiting west Houston .... The staff is very friendly and always willing to go the extra mile to make sure your stay is wonderful and u feel at home away from home ...MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2012</t>
+  </si>
+  <si>
+    <t>This is a great establishment it is very quiet,clean, and safe ... I recommend this location to everyone visiting west Houston .... The staff is very friendly and always willing to go the extra mile to make sure your stay is wonderful and u feel at home away from home ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r145777925-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145777925</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>For the price it's not bad. The room needs to be cleaner, found hair in beds and in bathroom in corners.</t>
+  </si>
+  <si>
+    <t>For the price, and location it is a nice place. My room needed to be a little cleaner but I have had worst, so over all it's ok. Everything looks new and everything works in my room. With the interstate so close it is very quite here. I would stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2012</t>
+  </si>
+  <si>
+    <t>For the price, and location it is a nice place. My room needed to be a little cleaner but I have had worst, so over all it's ok. Everything looks new and everything works in my room. With the interstate so close it is very quite here. I would stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r144031060-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144031060</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay...</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel after their renovation. Everything was amazing, specially the service and the quality of the rooms. Room service is very prompt. The staff is amazing; i felt as if i was staying at a 5 star hotel. The manager is very friendly and is always available.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded October 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel after their renovation. Everything was amazing, specially the service and the quality of the rooms. Room service is very prompt. The staff is amazing; i felt as if i was staying at a 5 star hotel. The manager is very friendly and is always available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r143915942-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143915942</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Honest and Pleasant Personnel</t>
+  </si>
+  <si>
+    <t>I stayed with this hotel a couple of days ago , when i got home, to my dismay I realized i left my USB drive with important work documents. I immediately called the Hotel and Ken was so helpful and reassuring to check and take care of it. He found my USB drive and kept it ready for pickup the next day. Thank you so much for good people like tem. I definitely recommed this hotel to my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2012</t>
+  </si>
+  <si>
+    <t>I stayed with this hotel a couple of days ago , when i got home, to my dismay I realized i left my USB drive with important work documents. I immediately called the Hotel and Ken was so helpful and reassuring to check and take care of it. He found my USB drive and kept it ready for pickup the next day. Thank you so much for good people like tem. I definitely recommed this hotel to my friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r140328624-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140328624</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Absolutely great!</t>
+  </si>
+  <si>
+    <t>Wonderful experience!Home like feeling, close to major highways and good location.Perfect options for living arrangements during a relocation or transition.Pricing is great and you benefit from longer stays. The best choice for short- term living.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Wonderful experience!Home like feeling, close to major highways and good location.Perfect options for living arrangements during a relocation or transition.Pricing is great and you benefit from longer stays. The best choice for short- term living.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1353,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1385,2292 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>237</v>
+      </c>
+      <c r="X25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>260</v>
+      </c>
+      <c r="X28" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>301</v>
+      </c>
+      <c r="X33" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>309</v>
+      </c>
+      <c r="X34" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_218.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_218.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r571261674-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107986</t>
+  </si>
+  <si>
+    <t>571261674</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Clean hotel and room, bathtubs also clean customer service did great. I would recommend coming back here to this location again. Good reasonable price for a room here at stayAmerica. This will be my place to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Clean hotel and room, bathtubs also clean customer service did great. I would recommend coming back here to this location again. Good reasonable price for a room here at stayAmerica. This will be my place to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r570199946-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570199946</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Trip turned into a Move</t>
+  </si>
+  <si>
+    <t>I didnt plan on staying but it was wonderful i stayed for a month and now i am going to live here ... and extended stay made it even better!  felt like my own apartment!  I became friends with secruity guy and so it was always pleasant when i would return late.  We would chat sometimes but it was just nice knowing I was coming back to a safe environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>I didnt plan on staying but it was wonderful i stayed for a month and now i am going to live here ... and extended stay made it even better!  felt like my own apartment!  I became friends with secruity guy and so it was always pleasant when i would return late.  We would chat sometimes but it was just nice knowing I was coming back to a safe environment.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r554576667-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107986</t>
-  </si>
-  <si>
     <t>554576667</t>
   </si>
   <si>
@@ -177,9 +237,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded January 18, 2018</t>
   </si>
   <si>
@@ -240,27 +297,75 @@
     <t>Everything was great about the place. Just two very small issues with the room. The refrigerator door needed to be replaced. Also, there were kids running around constantly above my room and we heard the walking/running noise non-stop.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r540200919-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540200919</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>The elevator  never works and they need. To fix the wall fixtures and the stove electric tops not properly in stall .</t>
+  </si>
+  <si>
+    <t>The hotel only has maybe 2 elevator  none of them work's so we had to use the stairs at all times room 349 that sucks walking up the stairs. And the maintenance guy don't work on weekends.No smoking but I smelled someone smoking weed.I told the lady and she just looked.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>The hotel only has maybe 2 elevator  none of them work's so we had to use the stairs at all times room 349 that sucks walking up the stairs. And the maintenance guy don't work on weekends.No smoking but I smelled someone smoking weed.I told the lady and she just looked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r505535658-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505535658</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>6 nights</t>
+  </si>
+  <si>
+    <t>The price was great for staying somewhere more than a couple of days. The staff were nice and very helpful. Our room was ok, although it smelled somewhat musty. I went out and bought an air freshener. Bathroom was roomy and clean, but the tub faucet dripped and the curtain rod, although curved creating more room, had been installed incorrectly which meant the curtain would not stay closed. The location was great for accessing wherever we wanted to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The price was great for staying somewhere more than a couple of days. The staff were nice and very helpful. Our room was ok, although it smelled somewhat musty. I went out and bought an air freshener. Bathroom was roomy and clean, but the tub faucet dripped and the curtain rod, although curved creating more room, had been installed incorrectly which meant the curtain would not stay closed. The location was great for accessing wherever we wanted to go.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r505466654-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
     <t>505466654</t>
   </si>
   <si>
-    <t>07/25/2017</t>
-  </si>
-  <si>
     <t>Awful rooms</t>
   </si>
   <si>
     <t>Condition of the room was horrible. Smelled like someone continuously smoked in the room,  it was dark, dirty.. afraid to even remove shoes.  We were denied a refund,  since it was after 3pm.  Even though the room was awful.  We immediately left and found another hotel. MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded July 25, 2017</t>
   </si>
   <si>
@@ -315,6 +420,57 @@
     <t>Excellent Stay for our transition Selling/ Buying our home. The staff was professional and quiet hotel was always clean.  Even at night security was always there an courteous knowing who's coming and going in the parking area felt very comfortable with business supplies in my truck No WorriesMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r498110070-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498110070</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Horrible stay</t>
+  </si>
+  <si>
+    <t>The smell of the Hotel, Lobby and room were horrible.  I would highly avoid this Hotel.  It was an uneasy stay.  Very horrible stay. The people that were at the hotel were questionable to say the least.  Will tell people to avoid this Hotel at all cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>The smell of the Hotel, Lobby and room were horrible.  I would highly avoid this Hotel.  It was an uneasy stay.  Very horrible stay. The people that were at the hotel were questionable to say the least.  Will tell people to avoid this Hotel at all cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r492911846-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492911846</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Worth the price</t>
+  </si>
+  <si>
+    <t>Other hotels in the area cost nearly twice as much as this place and probably did not have a full refrigerator, stove, and microwave in their rooms.  For my own purposes, this hotel's location was great and allowed for easy travel to and from my event. The room was perfect for what I needed and the staff that I encountered were incredibly accommodating and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Other hotels in the area cost nearly twice as much as this place and probably did not have a full refrigerator, stove, and microwave in their rooms.  For my own purposes, this hotel's location was great and allowed for easy travel to and from my event. The room was perfect for what I needed and the staff that I encountered were incredibly accommodating and helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r492179494-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -328,9 +484,6 @@
   </si>
   <si>
     <t>The only reason I  stayed here was for my class. I stayed to get to my class early the next day. Other than that I would have gone home. This is rediculous I have to write so much because i am rating this darn place.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2017</t>
   </si>
   <si>
     <t>00esa, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded June 11, 2017</t>
@@ -364,9 +517,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Okay, this is part 2 of the Houston Extended Stay America Hotel adventures. See my other review for history. 
 We checked into this hotel after being turned away from the Westheimer location where we were told our reservation was given away to a walk in (as they're trained to do by corporate even though corporate denies it, as confirmed by the front desk clerks at BOTH locations). We got to our smelly room to discover futniture was broken and there were dried streaks of *something* smeared all over the dresser along with splotchy crusty bits on the office chair. 
 I called and spoke with Jeremy (Corp. guest relations) the next morning to discuss my disappointment at having our reservation given away. He said they'd comp us the first night for the inconvenience. Okay, cool. 
@@ -395,6 +545,60 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r424615061-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424615061</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Don;t stay here if you have a nice truck or SUV</t>
+  </si>
+  <si>
+    <t>The accommodations are nice enough but this hotel parking lot is targeted by thieves.  I was here for only 7 hours (10 PM to 5 AM) and my Z71 Tahoe got broken into in addition to 2 other vehicles (according to staff who cleaned up the parking lot).  This was a known problem to the hotel staff but no one thought about mentioning it a check in.  So I got to learn the hard way,MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>The accommodations are nice enough but this hotel parking lot is targeted by thieves.  I was here for only 7 hours (10 PM to 5 AM) and my Z71 Tahoe got broken into in addition to 2 other vehicles (according to staff who cleaned up the parking lot).  This was a known problem to the hotel staff but no one thought about mentioning it a check in.  So I got to learn the hard way,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r419641506-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419641506</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>First time stay at this site</t>
+  </si>
+  <si>
+    <t>This was our first time visit to this hotel.  We were greeted by front desk staff and Alfred was very courteous. We had a room with a kitchenette and microwave and full standing refrigerator. We had an experience with the bathroom door handle coming off.  I called maintenance and was told they would repair it. The next day the door knob was fixed. We also had a squeaky bathroom door and I asked the front desk to see if I could borrow some WD40 to spray on it and they didn't  have any and was told they would fix it the next day. We had to go to different sites to Medical Center so it was a distance from this place. Overall it was a quiet area and  no problems encountered. There is an I HOP a half block away and it is walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>This was our first time visit to this hotel.  We were greeted by front desk staff and Alfred was very courteous. We had a room with a kitchenette and microwave and full standing refrigerator. We had an experience with the bathroom door handle coming off.  I called maintenance and was told they would repair it. The next day the door knob was fixed. We also had a squeaky bathroom door and I asked the front desk to see if I could borrow some WD40 to spray on it and they didn't  have any and was told they would fix it the next day. We had to go to different sites to Medical Center so it was a distance from this place. Overall it was a quiet area and  no problems encountered. There is an I HOP a half block away and it is walking distance.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r394100406-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -461,6 +665,60 @@
     <t>Hotel rooms were comfortable but found hair all over the comforter and the free wifi a so slow it's a total waste of time don't even waste your money on purchasing the faster one as it sucks almost as bad. Staff was very friendly and very helpful with any questions or assistance. Nice area to be in and always easy to get parking close by the entrance. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r319716494-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319716494</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Uncomfortable stay</t>
+  </si>
+  <si>
+    <t>Pros: Friendly staff, clean parking lot appearance.Cons: Strong odor that gave me a migraine and red swollen eyes. Was unable to sleep. Kept walking outside just to get fresh air in order to breath. Very slow wifi. Had the options for faster speeds but you would have to pay an additional fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Pros: Friendly staff, clean parking lot appearance.Cons: Strong odor that gave me a migraine and red swollen eyes. Was unable to sleep. Kept walking outside just to get fresh air in order to breath. Very slow wifi. Had the options for faster speeds but you would have to pay an additional fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r259505811-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259505811</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Got to our room notice first there was no phone in room. Then the toilet didn't work nor the microwave  and my sheets were dirty. I went to front desk to adress the situation all I got from that were some sheets that didn't even fit the bed. So upset but we were to tired to leave we had been driving for hours already and just wanted to sleep we checked in around 11pm. This place needs to be shut downMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Got to our room notice first there was no phone in room. Then the toilet didn't work nor the microwave  and my sheets were dirty. I went to front desk to adress the situation all I got from that were some sheets that didn't even fit the bed. So upset but we were to tired to leave we had been driving for hours already and just wanted to sleep we checked in around 11pm. This place needs to be shut downMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r256300162-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -530,6 +788,51 @@
     <t>We stayed here when in Houston for medical appointments.  Although, a little bit of a drive to the downtown medical centers, the room was great for what we needed.  We had a queen bed, kitchen with full fridge and two burner stove top.  The bathroom was a nice size with a humidity fan.  The air conditioner was a little loud, and ran often (no fault of the facility, it is summer in Houston, after all!). The only thing we missed was a dishwasher.  We washed our dishes by hand, which wasn't a problem, but I did wash them before using them as I didn't trust whoever was there before us to wash them.  We would definitely stay here again and would recommend it to friends and family, and all of you!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r206593573-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206593573</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Excellent service from reception</t>
+  </si>
+  <si>
+    <t>The hotel is comfortable for a buisiness traveller rather than swish or five star. There are very few frills however it is excellent value for money. The cleaning staff do a good job and the staff on reception are especially helpful - especially Taha.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r184481391-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184481391</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Worn out hotel</t>
+  </si>
+  <si>
+    <t>AC leaked, carpets are gross, bed has a low spot, internet is dialup speed, service was friendly but slow.Door card will fail if kept next to a credit card in your wallet.200 characters required for a review, but no character count?MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>AC leaked, carpets are gross, bed has a low spot, internet is dialup speed, service was friendly but slow.Door card will fail if kept next to a credit card in your wallet.200 characters required for a review, but no character count?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r184014370-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -545,9 +848,6 @@
     <t>Comfortable hotel with prices decreasing as your length of stay increases.Small kitchen means you could cook in your room should you wish.Close to the freeway with most rooms being a little noisyLite grab a bag breakfast is all that is offered.Coffee on tap and some vended snacks in the stairwellsPrices from £50 per night.MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 20, 2013</t>
   </si>
   <si>
@@ -599,6 +899,36 @@
     <t>This place has no amenities, not even a business center or fitness room. Things that every extended stay property should at least have. Rooms are average but cleanliness is definitely an issue here. Had to switch out of 2 rooms before settling on 3rd which wasn't great either. Just the thing that you want to do after a long flight. The Grab &amp; Go breakfast is a joke too, it's granola bars and old fruit. They can do a lot better and so can you... More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r169945477-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169945477</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Great 2 months stay!</t>
+  </si>
+  <si>
+    <t>We stayed 2 months at this hotel.  It was very CLEAN, the room was always cool.  The furniture was very nice and well kept.  The staff was friendly and professional.  The Wifi was not bad in comparison to other extended stays wifi service.  It's usually worse than dial up! This was a very nice 2 months stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r167102187-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167102187</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>What a great experience</t>
+  </si>
+  <si>
+    <t>The grabbing go breakfast could be better and earlier. but overall the staff is concerned for my safety&amp; and how comfortable I am while I'm staying here. allowing me to use the amenities at the other extended stay is nearby is a plus!! maintenance has always been on call to help me whenever I needed them... thank you. Jason Edward King...</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r166515555-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -671,6 +1001,54 @@
     <t>If you are in relocation to this area of Houston Texas, this is a great place for an extended stay. My room was super clean and well equiped for an extended stay. Comfortable beds and always hot shower. Good in-room internet access too. The staff was super friendly and very helpful. Easy and nice grab and go breakfast in the morning with excellent brewed coffee. I will stay here again and recommend you too, if you need a nice safe place to stay in this area of Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r151674840-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151674840</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I stayed in Room 206 and i loved it. The room was clean and fresh. Breakfast in the morning was good with muffins, coffee and fruits. The front desk clerk was great. Specially Raza he helped me with my computer problems. i was having internet problem in my room but raza came and fixed it for me. He always has smile on his face. Thank you so much Raza for all your help.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded February 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2013</t>
+  </si>
+  <si>
+    <t>I stayed in Room 206 and i loved it. The room was clean and fresh. Breakfast in the morning was good with muffins, coffee and fruits. The front desk clerk was great. Specially Raza he helped me with my computer problems. i was having internet problem in my room but raza came and fixed it for me. He always has smile on his face. Thank you so much Raza for all your help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r151399051-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151399051</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>Terrific</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at Ext Stay on Katy Freeway it felt like home. It was perfection. Clean clean clean. The front desk rep Atriana Harris was friendly, helpful and provided outstanding customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at Ext Stay on Katy Freeway it felt like home. It was perfection. Clean clean clean. The front desk rep Atriana Harris was friendly, helpful and provided outstanding customer service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r151351178-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -746,6 +1124,54 @@
     <t>Remodeled recently...Convenient and Quiet (Hotel is behind a building and close to freeway)Friendly and Attentive Front Desk employee - Thanks Atriána!Grab N Go Breakfast a nice touchExcellent for the low price I paid via Hotwire.comCheck out is a bit earlier than I'm used to... (11 a.m.)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r150550735-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150550735</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>A great hotel that's affordable and satisfactory.</t>
+  </si>
+  <si>
+    <t>Honestly the overall staff one is of the most hospitable I have ever met. The hotel is pleasant well equipped and well maintained the room I had my stay in was recently renovated and very nice. Front desk members were very helpful and did I mention the great location around city center! A must if your planning your stay in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Honestly the overall staff one is of the most hospitable I have ever met. The hotel is pleasant well equipped and well maintained the room I had my stay in was recently renovated and very nice. Front desk members were very helpful and did I mention the great location around city center! A must if your planning your stay in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r150254677-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150254677</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>Yuck would never stay here again</t>
+  </si>
+  <si>
+    <t>We got the room on Hotwire waiting for our apt to be ready. It said it was comparable to holiday inn which is not bad to me, imagine the horror when I step into this hotel. It smells like hot trash on the third and second floor. The sheet was yellow and the pillows white which concerned me. Dirty floors and crumbs on rug. Now someone alarm is going off for the last 30 minutes. Sad thing is we booked for two days:(. The guy at front was willing to let me change rooms but that was no better had stickiness on floors. This is a very cheap hotel, you pay for what you get.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded January 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2013</t>
+  </si>
+  <si>
+    <t>We got the room on Hotwire waiting for our apt to be ready. It said it was comparable to holiday inn which is not bad to me, imagine the horror when I step into this hotel. It smells like hot trash on the third and second floor. The sheet was yellow and the pillows white which concerned me. Dirty floors and crumbs on rug. Now someone alarm is going off for the last 30 minutes. Sad thing is we booked for two days:(. The guy at front was willing to let me change rooms but that was no better had stickiness on floors. This is a very cheap hotel, you pay for what you get.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r149978787-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -815,15 +1241,60 @@
     <t>On New Year,s Eve, I had moved from an apartment. I needed a place to stqy with my little dog. Then after driving around awhile, I observed Extended Stay America and parked and went inside to get informtion. I spoke to the person at the desk who was polite and patient. I was informed of all the amenities available to me which included television, WiFi, and a full kitchen with everything including siverware.In addition I was invited to breakfast which was served from6am to 9:30 am. I checked in for two days then checked for nother full month.Staff is always friendly and courteous and the Hotel facilities are clean and the locationis excellent for traveling around the city.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r147855490-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147855490</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Staff</t>
+  </si>
+  <si>
+    <t>My second week here now, and i am enjoying my stay. Right from the booking date to check in, the manager Harris Sultan and his staff have been of assistance all the way. The staff always try to ensure that i am comfortable; they are always willing to assist. The internet is wao, so i have been supervising the work of my subordinates as if i am in my office.The automatic Airconditioner/Heater and other equipment required to enjoy my stay are all wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded December 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2012</t>
+  </si>
+  <si>
+    <t>My second week here now, and i am enjoying my stay. Right from the booking date to check in, the manager Harris Sultan and his staff have been of assistance all the way. The staff always try to ensure that i am comfortable; they are always willing to assist. The internet is wao, so i have been supervising the work of my subordinates as if i am in my office.The automatic Airconditioner/Heater and other equipment required to enjoy my stay are all wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r147744290-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147744290</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>I've been here now for a month in a half.  The manger, Harris and his wonderful staff have made this transition a smooth one for me and my son. The rooms are clean and the envirnment is safe! Harris and his staff take pride and pleasure with working with you as a guest.  I have enjoyed my stay because the staff makes it worth coming home to.  The staff greet you everytime you are in the lobby.  The price is reasonable and right now the holiday spirit is in the lobby.  The grab an go breakfast is a good added treat.  The staff makes sure the laundry facility is kept just as clean as the rooms.  I would recommend any travelers or family that;s in transition......consider Harris and his WONDERFUL STAFF for home away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded December 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2012</t>
+  </si>
+  <si>
+    <t>I've been here now for a month in a half.  The manger, Harris and his wonderful staff have made this transition a smooth one for me and my son. The rooms are clean and the envirnment is safe! Harris and his staff take pride and pleasure with working with you as a guest.  I have enjoyed my stay because the staff makes it worth coming home to.  The staff greet you everytime you are in the lobby.  The price is reasonable and right now the holiday spirit is in the lobby.  The grab an go breakfast is a good added treat.  The staff makes sure the laundry facility is kept just as clean as the rooms.  I would recommend any travelers or family that;s in transition......consider Harris and his WONDERFUL STAFF for home away from home!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r147740839-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
     <t>147740839</t>
   </si>
   <si>
-    <t>12/19/2012</t>
-  </si>
-  <si>
     <t>Nice property and good location</t>
   </si>
   <si>
@@ -887,6 +1358,57 @@
     <t>For the price, and location it is a nice place. My room needed to be a little cleaner but I have had worst, so over all it's ok. Everything looks new and everything works in my room. With the interstate so close it is very quite here. I would stay here again.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r144326701-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144326701</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Neat, clean and comfortable but far from city</t>
+  </si>
+  <si>
+    <t>Stayed here for about a month. The rooms are cleaned and comfortable. They make the room once a week only. Pick and go breakfast is provided everyday and the Wifi is free. The bed is big and nice. Each room has a LCD. Also there is a microwave, refrigerator and a stove with basic pots and pans and dishes.The only drawback is that hotel is far from city and if you don't drive then you just have to wait for cabs which can take anything between 10 mins to one hour!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for about a month. The rooms are cleaned and comfortable. They make the room once a week only. Pick and go breakfast is provided everyday and the Wifi is free. The bed is big and nice. Each room has a LCD. Also there is a microwave, refrigerator and a stove with basic pots and pans and dishes.The only drawback is that hotel is far from city and if you don't drive then you just have to wait for cabs which can take anything between 10 mins to one hour!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r144113544-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144113544</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Elated to have stayed there, Feels like Home</t>
+  </si>
+  <si>
+    <t>My Extended Stay America Houston-Katy Freeway has turned out to be an amazing experience. I couldn't ask for any better accommodation. I am wowed by the service, hospitality and the attention to detail when it comes to their guests' needs. They have Aced everything a far as my needs were concerned. Professionalism typified.A special thanks to the management team and everyone who works there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2012</t>
+  </si>
+  <si>
+    <t>My Extended Stay America Houston-Katy Freeway has turned out to be an amazing experience. I couldn't ask for any better accommodation. I am wowed by the service, hospitality and the attention to detail when it comes to their guests' needs. They have Aced everything a far as my needs were concerned. Professionalism typified.A special thanks to the management team and everyone who works there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r144031060-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
   </si>
   <si>
@@ -926,9 +1448,6 @@
     <t>I stayed with this hotel a couple of days ago , when i got home, to my dismay I realized i left my USB drive with important work documents. I immediately called the Hotel and Ken was so helpful and reassuring to check and take care of it. He found my USB drive and kept it ready for pickup the next day. Thank you so much for good people like tem. I definitely recommed this hotel to my friends.MoreShow less</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>Saints01Houston, Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded October 29, 2012</t>
   </si>
   <si>
@@ -960,6 +1479,30 @@
   </si>
   <si>
     <t>Wonderful experience!Home like feeling, close to major highways and good location.Perfect options for living arrangements during a relocation or transition.Pricing is great and you benefit from longer stays. The best choice for short- term living.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107986-r138369219-Extended_Stay_America_Houston_I_10_West_Citycentre-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138369219</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>I have stayed here a lot last couple of months rooms and property looks alot nice after renovation</t>
+  </si>
+  <si>
+    <t>Overall good location and brand new look to rooms and property makes it confortable place to do business living And good  AND friendly staff .rooms and property looks alot nice after renovation .Staff nice and supportive during construction made hassel easier .MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-10 West - Citycentre, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Overall good location and brand new look to rooms and property makes it confortable place to do business living And good  AND friendly staff .rooms and property looks alot nice after renovation .Staff nice and supportive during construction made hassel easier .More</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +2037,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1503,20 +2046,20 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1565,41 +2108,41 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1615,7 +2158,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1624,53 +2167,53 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1686,7 +2229,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1695,53 +2238,53 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1757,7 +2300,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1766,53 +2309,53 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1828,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1837,53 +2380,53 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1899,7 +2442,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1908,53 +2451,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -1970,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1979,32 +2512,38 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
         <v>1</v>
       </c>
-      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>1</v>
@@ -2012,10 +2551,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2031,7 +2574,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2040,43 +2583,53 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2092,7 +2645,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2101,43 +2654,53 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -2153,7 +2716,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2162,39 +2725,53 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -2210,7 +2787,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2219,43 +2796,53 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>139</v>
       </c>
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>141</v>
-      </c>
       <c r="O13" t="s">
-        <v>114</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -2271,7 +2858,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2280,33 +2867,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2316,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -2338,7 +2929,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2347,35 +2938,35 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2383,7 +2974,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -2399,7 +2990,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2408,39 +2999,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2456,7 +3051,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2465,43 +3060,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -2517,7 +3118,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2526,49 +3127,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" t="n">
+        <v>108</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
         <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -2584,7 +3183,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2593,49 +3192,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +3244,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2660,49 +3253,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
         <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
         <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
@@ -2718,7 +3301,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2727,49 +3310,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -2785,7 +3362,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2794,53 +3371,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
@@ -2856,7 +3423,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2865,53 +3432,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
@@ -2927,7 +3484,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2936,51 +3493,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -2996,7 +3551,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3005,53 +3560,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>237</v>
-      </c>
-      <c r="X25" t="s">
-        <v>238</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
@@ -3067,7 +3612,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3076,49 +3621,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>245</v>
-      </c>
-      <c r="X26" t="s">
-        <v>246</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
@@ -3134,7 +3669,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3143,37 +3678,37 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3182,14 +3717,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>229</v>
-      </c>
-      <c r="X27" t="s">
-        <v>230</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
@@ -3205,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3214,53 +3745,53 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="X28" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Y28" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -3276,7 +3807,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3285,53 +3816,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>265</v>
       </c>
-      <c r="K29" t="s">
-        <v>266</v>
-      </c>
-      <c r="L29" t="s">
-        <v>267</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>253</v>
-      </c>
       <c r="O29" t="s">
-        <v>114</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -3347,7 +3868,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3356,27 +3877,31 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>108</v>
+      </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
@@ -3391,14 +3916,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>276</v>
-      </c>
-      <c r="X30" t="s">
-        <v>277</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
@@ -3414,7 +3935,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3423,49 +3944,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
@@ -3481,7 +4002,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3490,16 +4011,16 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -3525,14 +4046,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>292</v>
-      </c>
-      <c r="X32" t="s">
-        <v>293</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -3548,7 +4065,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3557,26 +4074,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s">
-        <v>300</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
         <v>4</v>
       </c>
@@ -3596,14 +4109,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>301</v>
-      </c>
-      <c r="X33" t="s">
-        <v>302</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -3619,7 +4128,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3628,24 +4137,28 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
         <v>305</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>306</v>
       </c>
-      <c r="K34" t="s">
-        <v>307</v>
-      </c>
-      <c r="L34" t="s">
-        <v>308</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
@@ -3658,19 +4171,1610 @@
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
         <v>309</v>
       </c>
-      <c r="X34" t="s">
+      <c r="J35" t="s">
         <v>310</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="K35" t="s">
         <v>311</v>
+      </c>
+      <c r="L35" t="s">
+        <v>312</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>313</v>
+      </c>
+      <c r="X35" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>98</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>327</v>
+      </c>
+      <c r="K37" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s">
+        <v>329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>330</v>
+      </c>
+      <c r="X37" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s">
+        <v>337</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>338</v>
+      </c>
+      <c r="X38" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J39" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s">
+        <v>345</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>346</v>
+      </c>
+      <c r="X39" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>350</v>
+      </c>
+      <c r="J40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s">
+        <v>353</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>354</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>355</v>
+      </c>
+      <c r="X40" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>358</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>359</v>
+      </c>
+      <c r="J41" t="s">
+        <v>360</v>
+      </c>
+      <c r="K41" t="s">
+        <v>361</v>
+      </c>
+      <c r="L41" t="s">
+        <v>362</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>354</v>
+      </c>
+      <c r="O41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>363</v>
+      </c>
+      <c r="X41" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>371</v>
+      </c>
+      <c r="X42" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>374</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>375</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>377</v>
+      </c>
+      <c r="L43" t="s">
+        <v>378</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>354</v>
+      </c>
+      <c r="O43" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>379</v>
+      </c>
+      <c r="X43" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="s">
+        <v>384</v>
+      </c>
+      <c r="K44" t="s">
+        <v>385</v>
+      </c>
+      <c r="L44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>387</v>
+      </c>
+      <c r="X44" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L45" t="s">
+        <v>394</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>355</v>
+      </c>
+      <c r="X45" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" t="s">
+        <v>400</v>
+      </c>
+      <c r="L46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>354</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>410</v>
+      </c>
+      <c r="X47" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>413</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>414</v>
+      </c>
+      <c r="J48" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" t="s">
+        <v>416</v>
+      </c>
+      <c r="L48" t="s">
+        <v>417</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>306</v>
+      </c>
+      <c r="O48" t="s">
+        <v>108</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>418</v>
+      </c>
+      <c r="X48" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>422</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>423</v>
+      </c>
+      <c r="L49" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>425</v>
+      </c>
+      <c r="X49" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>428</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>429</v>
+      </c>
+      <c r="J50" t="s">
+        <v>430</v>
+      </c>
+      <c r="K50" t="s">
+        <v>431</v>
+      </c>
+      <c r="L50" t="s">
+        <v>432</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>433</v>
+      </c>
+      <c r="X50" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J51" t="s">
+        <v>438</v>
+      </c>
+      <c r="K51" t="s">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s">
+        <v>440</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>441</v>
+      </c>
+      <c r="X51" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>445</v>
+      </c>
+      <c r="J52" t="s">
+        <v>446</v>
+      </c>
+      <c r="K52" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" t="s">
+        <v>448</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>449</v>
+      </c>
+      <c r="O52" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>450</v>
+      </c>
+      <c r="X52" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>453</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>454</v>
+      </c>
+      <c r="J53" t="s">
+        <v>455</v>
+      </c>
+      <c r="K53" t="s">
+        <v>456</v>
+      </c>
+      <c r="L53" t="s">
+        <v>457</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>449</v>
+      </c>
+      <c r="O53" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>458</v>
+      </c>
+      <c r="X53" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>462</v>
+      </c>
+      <c r="J54" t="s">
+        <v>463</v>
+      </c>
+      <c r="K54" t="s">
+        <v>464</v>
+      </c>
+      <c r="L54" t="s">
+        <v>465</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>466</v>
+      </c>
+      <c r="X54" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>469</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>470</v>
+      </c>
+      <c r="J55" t="s">
+        <v>471</v>
+      </c>
+      <c r="K55" t="s">
+        <v>472</v>
+      </c>
+      <c r="L55" t="s">
+        <v>473</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>449</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>474</v>
+      </c>
+      <c r="X55" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>477</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>478</v>
+      </c>
+      <c r="J56" t="s">
+        <v>479</v>
+      </c>
+      <c r="K56" t="s">
+        <v>480</v>
+      </c>
+      <c r="L56" t="s">
+        <v>481</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>482</v>
+      </c>
+      <c r="X56" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38145</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>486</v>
+      </c>
+      <c r="J57" t="s">
+        <v>487</v>
+      </c>
+      <c r="K57" t="s">
+        <v>488</v>
+      </c>
+      <c r="L57" t="s">
+        <v>489</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>490</v>
+      </c>
+      <c r="X57" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
